--- a/data/156/CANSIMS/Building permits by type of structure and type of work.xlsx
+++ b/data/156/CANSIMS/Building permits by type of structure and type of work.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,440 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
-  <si>
-    <t>Type of structure</t>
-  </si>
-  <si>
-    <t>Seasonal adjustment6, 7, 8</t>
-  </si>
-  <si>
-    <t>January 2011</t>
-  </si>
-  <si>
-    <t>February 2011</t>
-  </si>
-  <si>
-    <t>March 2011</t>
-  </si>
-  <si>
-    <t>April 2011</t>
-  </si>
-  <si>
-    <t>May 2011</t>
-  </si>
-  <si>
-    <t>June 2011</t>
-  </si>
-  <si>
-    <t>July 2011</t>
-  </si>
-  <si>
-    <t>August 2011</t>
-  </si>
-  <si>
-    <t>September 2011</t>
-  </si>
-  <si>
-    <t>October 2011</t>
-  </si>
-  <si>
-    <t>November 2011</t>
-  </si>
-  <si>
-    <t>December 2011</t>
-  </si>
-  <si>
-    <t>January 2012</t>
-  </si>
-  <si>
-    <t>February 2012</t>
-  </si>
-  <si>
-    <t>March 2012</t>
-  </si>
-  <si>
-    <t>April 2012</t>
-  </si>
-  <si>
-    <t>May 2012</t>
-  </si>
-  <si>
-    <t>June 2012</t>
-  </si>
-  <si>
-    <t>July 2012</t>
-  </si>
-  <si>
-    <t>August 2012</t>
-  </si>
-  <si>
-    <t>September 2012</t>
-  </si>
-  <si>
-    <t>October 2012</t>
-  </si>
-  <si>
-    <t>November 2012</t>
-  </si>
-  <si>
-    <t>December 2012</t>
-  </si>
-  <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>February 2013</t>
-  </si>
-  <si>
-    <t>March 2013</t>
-  </si>
-  <si>
-    <t>April 2013</t>
-  </si>
-  <si>
-    <t>May 2013</t>
-  </si>
-  <si>
-    <t>June 2013</t>
-  </si>
-  <si>
-    <t>July 2013</t>
-  </si>
-  <si>
-    <t>August 2013</t>
-  </si>
-  <si>
-    <t>September 2013</t>
-  </si>
-  <si>
-    <t>October 2013</t>
-  </si>
-  <si>
-    <t>November 2013</t>
-  </si>
-  <si>
-    <t>December 2013</t>
-  </si>
-  <si>
-    <t>January 2014</t>
-  </si>
-  <si>
-    <t>February 2014</t>
-  </si>
-  <si>
-    <t>March 2014</t>
-  </si>
-  <si>
-    <t>April 2014</t>
-  </si>
-  <si>
-    <t>May 2014</t>
-  </si>
-  <si>
-    <t>June 2014</t>
-  </si>
-  <si>
-    <t>July 2014</t>
-  </si>
-  <si>
-    <t>August 2014</t>
-  </si>
-  <si>
-    <t>September 2014</t>
-  </si>
-  <si>
-    <t>October 2014</t>
-  </si>
-  <si>
-    <t>November 2014</t>
-  </si>
-  <si>
-    <t>December 2014</t>
-  </si>
-  <si>
-    <t>January 2015</t>
-  </si>
-  <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t>March 2015</t>
-  </si>
-  <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t>November 2015</t>
-  </si>
-  <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t>January 2017</t>
-  </si>
-  <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t>August 2018</t>
-  </si>
-  <si>
-    <t>September 2018</t>
-  </si>
-  <si>
-    <t>October 2018</t>
-  </si>
-  <si>
-    <t>November 2018</t>
-  </si>
-  <si>
-    <t>December 2018</t>
-  </si>
-  <si>
-    <t>January 2019</t>
-  </si>
-  <si>
-    <t>February 2019</t>
-  </si>
-  <si>
-    <t>March 2019</t>
-  </si>
-  <si>
-    <t>April 2019</t>
-  </si>
-  <si>
-    <t>May 2019</t>
-  </si>
-  <si>
-    <t>June 2019</t>
-  </si>
-  <si>
-    <t>July 2019</t>
-  </si>
-  <si>
-    <t>August 2019</t>
-  </si>
-  <si>
-    <t>September 2019</t>
-  </si>
-  <si>
-    <t>October 2019</t>
-  </si>
-  <si>
-    <t>November 2019</t>
-  </si>
-  <si>
-    <t>December 2019</t>
-  </si>
-  <si>
-    <t>January 2020</t>
-  </si>
-  <si>
-    <t>February 2020</t>
-  </si>
-  <si>
-    <t>March 2020</t>
-  </si>
-  <si>
-    <t>April 2020</t>
-  </si>
-  <si>
-    <t>May 2020</t>
-  </si>
-  <si>
-    <t>June 2020</t>
-  </si>
-  <si>
-    <t>July 2020</t>
-  </si>
-  <si>
-    <t>August 2020</t>
-  </si>
-  <si>
-    <t>September 2020</t>
-  </si>
-  <si>
-    <t>October 2020</t>
-  </si>
-  <si>
-    <t>November 2020</t>
-  </si>
-  <si>
-    <t>December 2020</t>
-  </si>
-  <si>
-    <t>January 2021</t>
-  </si>
-  <si>
-    <t>February 2021</t>
-  </si>
-  <si>
-    <t>March 2021</t>
-  </si>
-  <si>
-    <t>April 2021</t>
-  </si>
-  <si>
-    <t>May 2021</t>
-  </si>
-  <si>
-    <t>June 2021</t>
-  </si>
-  <si>
-    <t>July 2021</t>
-  </si>
-  <si>
-    <t>August 2021</t>
-  </si>
-  <si>
-    <t>September 2021</t>
-  </si>
-  <si>
-    <t>October 2021</t>
-  </si>
-  <si>
-    <t>Dollars</t>
-  </si>
-  <si>
-    <t>Total residential and non-residential</t>
-  </si>
-  <si>
-    <t>Unadjusted, current</t>
-  </si>
-  <si>
-    <t>Seasonally adjusted, current9</t>
-  </si>
-  <si>
-    <t>Total residential</t>
-  </si>
-  <si>
-    <t>Single dwelling building total</t>
-  </si>
-  <si>
-    <t>Multiple dwelling building total</t>
-  </si>
-  <si>
-    <t>Total non-residential</t>
-  </si>
-  <si>
-    <t>Total industrial</t>
-  </si>
-  <si>
-    <t>Total commercial</t>
-  </si>
-  <si>
-    <t>Total institutional and governmental</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -483,6 +49,27 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -792,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EB20"/>
+  <dimension ref="A1:EE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,938 +387,1499 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:132">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Type of structure</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Seasonal adjustment6, 7, 8</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>January 2011</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>February 2011</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>March 2011</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>April 2011</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>May 2011</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>June 2011</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>July 2011</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>August 2011</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>September 2011</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>October 2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>November 2011</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>December 2011</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>January 2012</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>February 2012</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>March 2012</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>April 2012</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>May 2012</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>June 2012</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>July 2012</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>August 2012</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>September 2012</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>October 2012</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>November 2012</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>December 2012</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>January 2013</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>February 2013</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>March 2013</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>April 2013</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>May 2013</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>June 2013</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>July 2013</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>August 2013</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>September 2013</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>October 2013</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>November 2013</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>December 2013</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>January 2014</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>February 2014</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>March 2014</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>April 2014</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>May 2014</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>June 2014</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>July 2014</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>August 2014</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>September 2014</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>October 2014</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>November 2014</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>December 2014</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>January 2015</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>February 2015</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>March 2015</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>April 2015</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>May 2015</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>June 2015</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>July 2015</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>August 2015</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>September 2015</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>October 2015</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>November 2015</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>December 2015</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>January 2016</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>February 2016</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>March 2016</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>April 2016</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>May 2016</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>June 2016</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>July 2016</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>August 2016</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>October 2016</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>November 2016</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>December 2016</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>January 2017</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>February 2017</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>March 2017</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>April 2017</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>May 2017</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>June 2017</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>July 2017</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>August 2017</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>October 2017</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>November 2017</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>December 2017</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>January 2018</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>February 2018</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>March 2018</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>April 2018</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>May 2018</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>June 2018</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>July 2018</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>August 2018</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>September 2018</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>October 2018</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>November 2018</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>December 2018</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>January 2019</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>February 2019</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>March 2019</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>April 2019</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>May 2019</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>June 2019</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>July 2019</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>August 2019</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>September 2019</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>October 2019</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>November 2019</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>December 2019</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>January 2020</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>February 2020</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>March 2020</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>April 2020</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>May 2020</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>June 2020</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>July 2020</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>August 2020</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>October 2020</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>November 2020</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>December 2020</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>February 2021</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>April 2021</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>May 2021</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>June 2021</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>July 2021</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>August 2021</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>October 2021</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>November 2021</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>December 2021</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>January 2022</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:132">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
-      <c r="Z2" t="s"/>
-      <c r="AA2" t="s"/>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="s"/>
-      <c r="AE2" t="s"/>
-      <c r="AF2" t="s"/>
-      <c r="AG2" t="s"/>
-      <c r="AH2" t="s"/>
-      <c r="AI2" t="s"/>
-      <c r="AJ2" t="s"/>
-      <c r="AK2" t="s"/>
-      <c r="AL2" t="s"/>
-      <c r="AM2" t="s"/>
-      <c r="AN2" t="s"/>
-      <c r="AO2" t="s"/>
-      <c r="AP2" t="s"/>
-      <c r="AQ2" t="s"/>
-      <c r="AR2" t="s"/>
-      <c r="AS2" t="s"/>
-      <c r="AT2" t="s"/>
-      <c r="AU2" t="s"/>
-      <c r="AV2" t="s"/>
-      <c r="AW2" t="s"/>
-      <c r="AX2" t="s"/>
-      <c r="AY2" t="s"/>
-      <c r="AZ2" t="s"/>
-      <c r="BA2" t="s"/>
-      <c r="BB2" t="s"/>
-      <c r="BC2" t="s"/>
-      <c r="BD2" t="s"/>
-      <c r="BE2" t="s"/>
-      <c r="BF2" t="s"/>
-      <c r="BG2" t="s"/>
-      <c r="BH2" t="s"/>
-      <c r="BI2" t="s"/>
-      <c r="BJ2" t="s"/>
-      <c r="BK2" t="s"/>
-      <c r="BL2" t="s"/>
-      <c r="BM2" t="s"/>
-      <c r="BN2" t="s"/>
-      <c r="BO2" t="s"/>
-      <c r="BP2" t="s"/>
-      <c r="BQ2" t="s"/>
-      <c r="BR2" t="s"/>
-      <c r="BS2" t="s"/>
-      <c r="BT2" t="s"/>
-      <c r="BU2" t="s"/>
-      <c r="BV2" t="s"/>
-      <c r="BW2" t="s"/>
-      <c r="BX2" t="s"/>
-      <c r="BY2" t="s"/>
-      <c r="BZ2" t="s"/>
-      <c r="CA2" t="s"/>
-      <c r="CB2" t="s"/>
-      <c r="CC2" t="s"/>
-      <c r="CD2" t="s"/>
-      <c r="CE2" t="s"/>
-      <c r="CF2" t="s"/>
-      <c r="CG2" t="s"/>
-      <c r="CH2" t="s"/>
-      <c r="CI2" t="s"/>
-      <c r="CJ2" t="s"/>
-      <c r="CK2" t="s"/>
-      <c r="CL2" t="s"/>
-      <c r="CM2" t="s"/>
-      <c r="CN2" t="s"/>
-      <c r="CO2" t="s"/>
-      <c r="CP2" t="s"/>
-      <c r="CQ2" t="s"/>
-      <c r="CR2" t="s"/>
-      <c r="CS2" t="s"/>
-      <c r="CT2" t="s"/>
-      <c r="CU2" t="s"/>
-      <c r="CV2" t="s"/>
-      <c r="CW2" t="s"/>
-      <c r="CX2" t="s"/>
-      <c r="CY2" t="s"/>
-      <c r="CZ2" t="s"/>
-      <c r="DA2" t="s"/>
-      <c r="DB2" t="s"/>
-      <c r="DC2" t="s"/>
-      <c r="DD2" t="s"/>
-      <c r="DE2" t="s"/>
-      <c r="DF2" t="s"/>
-      <c r="DG2" t="s"/>
-      <c r="DH2" t="s"/>
-      <c r="DI2" t="s"/>
-      <c r="DJ2" t="s"/>
-      <c r="DK2" t="s"/>
-      <c r="DL2" t="s"/>
-      <c r="DM2" t="s"/>
-      <c r="DN2" t="s"/>
-      <c r="DO2" t="s"/>
-      <c r="DP2" t="s"/>
-      <c r="DQ2" t="s"/>
-      <c r="DR2" t="s"/>
-      <c r="DS2" t="s"/>
-      <c r="DT2" t="s"/>
-      <c r="DU2" t="s"/>
-      <c r="DV2" t="s"/>
-      <c r="DW2" t="s"/>
-      <c r="DX2" t="s"/>
-      <c r="DY2" t="s"/>
-      <c r="DZ2" t="s"/>
-      <c r="EA2" t="s"/>
-      <c r="EB2" t="s"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
+      <c r="EE2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:132">
+    <row r="3">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="s"/>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" t="s">
-        <v>132</v>
-      </c>
-      <c r="S3" t="s">
-        <v>132</v>
-      </c>
-      <c r="T3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U3" t="s">
-        <v>132</v>
-      </c>
-      <c r="V3" t="s">
-        <v>132</v>
-      </c>
-      <c r="W3" t="s">
-        <v>132</v>
-      </c>
-      <c r="X3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>132</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>132</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>132</v>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
+      </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>Dollars</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:132">
-      <c r="A4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>134</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Total residential and non-residential</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>3711215</v>
@@ -2118,16 +2266,27 @@
         <v>10296375</v>
       </c>
       <c r="EA4" t="n">
-        <v>11271938</v>
+        <v>11268513</v>
       </c>
       <c r="EB4" t="n">
-        <v>10809242</v>
+        <v>10923404</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>11432712</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>10094498</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>7712354</v>
       </c>
     </row>
-    <row r="5" spans="1:132">
+    <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="s">
-        <v>135</v>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>5850729</v>
@@ -2511,21 +2670,34 @@
         <v>9928498</v>
       </c>
       <c r="DZ5" t="n">
-        <v>9758611</v>
+        <v>9847986</v>
       </c>
       <c r="EA5" t="n">
-        <v>10160701</v>
+        <v>10227983</v>
       </c>
       <c r="EB5" t="n">
-        <v>10291311</v>
+        <v>10567578</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>11363283</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>11096082</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>10116538</v>
       </c>
     </row>
-    <row r="6" spans="1:132">
-      <c r="A6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Total residential</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>2363150</v>
@@ -2912,16 +3084,27 @@
         <v>6746162</v>
       </c>
       <c r="EA6" t="n">
-        <v>7397231</v>
+        <v>7395758</v>
       </c>
       <c r="EB6" t="n">
-        <v>7201504</v>
+        <v>7241191</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>7804713</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>6689975</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>4998260</v>
       </c>
     </row>
-    <row r="7" spans="1:132">
+    <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="s">
-        <v>135</v>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>3661697</v>
@@ -3305,21 +3488,34 @@
         <v>6962402</v>
       </c>
       <c r="DZ7" t="n">
-        <v>6371175</v>
+        <v>6424709</v>
       </c>
       <c r="EA7" t="n">
-        <v>6859760</v>
+        <v>6934238</v>
       </c>
       <c r="EB7" t="n">
-        <v>6851104</v>
+        <v>7027704</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>7933849</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>7605675</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>6721370</v>
       </c>
     </row>
-    <row r="8" spans="1:132">
-      <c r="A8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>134</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Single dwelling building total</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>1235322</v>
@@ -3706,16 +3902,27 @@
         <v>3350262</v>
       </c>
       <c r="EA8" t="n">
-        <v>3340297</v>
+        <v>3326909</v>
       </c>
       <c r="EB8" t="n">
-        <v>3505928</v>
+        <v>3509890</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>3343974</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>2521651</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>2279821</v>
       </c>
     </row>
-    <row r="9" spans="1:132">
+    <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="s">
-        <v>135</v>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>2217440</v>
@@ -4099,21 +4306,34 @@
         <v>3092727</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3135250</v>
+        <v>3143757</v>
       </c>
       <c r="EA9" t="n">
-        <v>3036233</v>
+        <v>3022602</v>
       </c>
       <c r="EB9" t="n">
-        <v>3363170</v>
+        <v>3406578</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>3585103</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>3548165</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>3415025</v>
       </c>
     </row>
-    <row r="10" spans="1:132">
-      <c r="A10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>134</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Multiple dwelling building total</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>1127828</v>
@@ -4500,16 +4720,27 @@
         <v>3395900</v>
       </c>
       <c r="EA10" t="n">
-        <v>4056934</v>
+        <v>4068849</v>
       </c>
       <c r="EB10" t="n">
-        <v>3695576</v>
+        <v>3731301</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>4460739</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>4168324</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>2718439</v>
       </c>
     </row>
-    <row r="11" spans="1:132">
+    <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>1444257</v>
@@ -4893,21 +5124,34 @@
         <v>3869675</v>
       </c>
       <c r="DZ11" t="n">
-        <v>3235924</v>
+        <v>3280951</v>
       </c>
       <c r="EA11" t="n">
-        <v>3823528</v>
+        <v>3911636</v>
       </c>
       <c r="EB11" t="n">
-        <v>3487933</v>
+        <v>3621126</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>4348746</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>4057510</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>3306346</v>
       </c>
     </row>
-    <row r="12" spans="1:132">
-      <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>134</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total non-residential</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>1348065</v>
@@ -5294,16 +5538,27 @@
         <v>3550212</v>
       </c>
       <c r="EA12" t="n">
-        <v>3874707</v>
+        <v>3872755</v>
       </c>
       <c r="EB12" t="n">
-        <v>3607738</v>
+        <v>3682213</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>3627999</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>3404523</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>2714094</v>
       </c>
     </row>
-    <row r="13" spans="1:132">
+    <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="s">
-        <v>135</v>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>2189032</v>
@@ -5687,21 +5942,34 @@
         <v>2966096</v>
       </c>
       <c r="DZ13" t="n">
-        <v>3387436</v>
+        <v>3423277</v>
       </c>
       <c r="EA13" t="n">
-        <v>3300941</v>
+        <v>3293745</v>
       </c>
       <c r="EB13" t="n">
-        <v>3440208</v>
+        <v>3539874</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>3429434</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>3490407</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>3395167</v>
       </c>
     </row>
-    <row r="14" spans="1:132">
-      <c r="A14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>134</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Total industrial</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>253489</v>
@@ -6088,16 +6356,27 @@
         <v>603206</v>
       </c>
       <c r="EA14" t="n">
-        <v>1341520</v>
+        <v>917031</v>
       </c>
       <c r="EB14" t="n">
-        <v>500688</v>
+        <v>483160</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>785626</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>677962</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>851366</v>
       </c>
     </row>
-    <row r="15" spans="1:132">
+    <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>135</v>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>453495</v>
@@ -6481,21 +6760,34 @@
         <v>621369</v>
       </c>
       <c r="DZ15" t="n">
-        <v>566627</v>
+        <v>561999</v>
       </c>
       <c r="EA15" t="n">
-        <v>969505</v>
+        <v>688989</v>
       </c>
       <c r="EB15" t="n">
-        <v>489519</v>
+        <v>481449</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>725966</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>795829</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>916498</v>
       </c>
     </row>
-    <row r="16" spans="1:132">
-      <c r="A16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>134</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total commercial</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>758827</v>
@@ -6882,16 +7174,27 @@
         <v>1966237</v>
       </c>
       <c r="EA16" t="n">
-        <v>1805094</v>
+        <v>2210870</v>
       </c>
       <c r="EB16" t="n">
-        <v>1900178</v>
+        <v>1911607</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>2245448</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>2077441</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>1315417</v>
       </c>
     </row>
-    <row r="17" spans="1:132">
+    <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="s">
-        <v>135</v>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1163124</v>
@@ -7275,21 +7578,34 @@
         <v>1591574</v>
       </c>
       <c r="DZ17" t="n">
-        <v>1834324</v>
+        <v>1885165</v>
       </c>
       <c r="EA17" t="n">
-        <v>1609748</v>
+        <v>1877004</v>
       </c>
       <c r="EB17" t="n">
-        <v>1772954</v>
+        <v>1858729</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>2084878</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>1931003</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>1734707</v>
       </c>
     </row>
-    <row r="18" spans="1:132">
-      <c r="A18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>134</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total institutional and governmental</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Unadjusted, current</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>335749</v>
@@ -7676,16 +7992,27 @@
         <v>980769</v>
       </c>
       <c r="EA18" t="n">
-        <v>728093</v>
+        <v>744853</v>
       </c>
       <c r="EB18" t="n">
-        <v>1206872</v>
+        <v>1287446</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>596926</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>649120</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>547311</v>
       </c>
     </row>
-    <row r="19" spans="1:132">
+    <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="s">
-        <v>135</v>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Seasonally adjusted, current9</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>572413</v>
@@ -8069,148 +8396,160 @@
         <v>753153</v>
       </c>
       <c r="DZ19" t="n">
-        <v>986486</v>
+        <v>976113</v>
       </c>
       <c r="EA19" t="n">
-        <v>721687</v>
+        <v>727751</v>
       </c>
       <c r="EB19" t="n">
-        <v>1177735</v>
+        <v>1199697</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>618590</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>763575</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>743962</v>
       </c>
     </row>
-    <row r="20" spans="1:132">
-      <c r="A20" s="1" t="s"/>
-      <c r="B20" s="1" t="s"/>
-      <c r="C20" t="s"/>
-      <c r="D20" t="s"/>
-      <c r="E20" t="s"/>
-      <c r="F20" t="s"/>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
-      <c r="V20" t="s"/>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
-      <c r="Z20" t="s"/>
-      <c r="AA20" t="s"/>
-      <c r="AB20" t="s"/>
-      <c r="AC20" t="s"/>
-      <c r="AD20" t="s"/>
-      <c r="AE20" t="s"/>
-      <c r="AF20" t="s"/>
-      <c r="AG20" t="s"/>
-      <c r="AH20" t="s"/>
-      <c r="AI20" t="s"/>
-      <c r="AJ20" t="s"/>
-      <c r="AK20" t="s"/>
-      <c r="AL20" t="s"/>
-      <c r="AM20" t="s"/>
-      <c r="AN20" t="s"/>
-      <c r="AO20" t="s"/>
-      <c r="AP20" t="s"/>
-      <c r="AQ20" t="s"/>
-      <c r="AR20" t="s"/>
-      <c r="AS20" t="s"/>
-      <c r="AT20" t="s"/>
-      <c r="AU20" t="s"/>
-      <c r="AV20" t="s"/>
-      <c r="AW20" t="s"/>
-      <c r="AX20" t="s"/>
-      <c r="AY20" t="s"/>
-      <c r="AZ20" t="s"/>
-      <c r="BA20" t="s"/>
-      <c r="BB20" t="s"/>
-      <c r="BC20" t="s"/>
-      <c r="BD20" t="s"/>
-      <c r="BE20" t="s"/>
-      <c r="BF20" t="s"/>
-      <c r="BG20" t="s"/>
-      <c r="BH20" t="s"/>
-      <c r="BI20" t="s"/>
-      <c r="BJ20" t="s"/>
-      <c r="BK20" t="s"/>
-      <c r="BL20" t="s"/>
-      <c r="BM20" t="s"/>
-      <c r="BN20" t="s"/>
-      <c r="BO20" t="s"/>
-      <c r="BP20" t="s"/>
-      <c r="BQ20" t="s"/>
-      <c r="BR20" t="s"/>
-      <c r="BS20" t="s"/>
-      <c r="BT20" t="s"/>
-      <c r="BU20" t="s"/>
-      <c r="BV20" t="s"/>
-      <c r="BW20" t="s"/>
-      <c r="BX20" t="s"/>
-      <c r="BY20" t="s"/>
-      <c r="BZ20" t="s"/>
-      <c r="CA20" t="s"/>
-      <c r="CB20" t="s"/>
-      <c r="CC20" t="s"/>
-      <c r="CD20" t="s"/>
-      <c r="CE20" t="s"/>
-      <c r="CF20" t="s"/>
-      <c r="CG20" t="s"/>
-      <c r="CH20" t="s"/>
-      <c r="CI20" t="s"/>
-      <c r="CJ20" t="s"/>
-      <c r="CK20" t="s"/>
-      <c r="CL20" t="s"/>
-      <c r="CM20" t="s"/>
-      <c r="CN20" t="s"/>
-      <c r="CO20" t="s"/>
-      <c r="CP20" t="s"/>
-      <c r="CQ20" t="s"/>
-      <c r="CR20" t="s"/>
-      <c r="CS20" t="s"/>
-      <c r="CT20" t="s"/>
-      <c r="CU20" t="s"/>
-      <c r="CV20" t="s"/>
-      <c r="CW20" t="s"/>
-      <c r="CX20" t="s"/>
-      <c r="CY20" t="s"/>
-      <c r="CZ20" t="s"/>
-      <c r="DA20" t="s"/>
-      <c r="DB20" t="s"/>
-      <c r="DC20" t="s"/>
-      <c r="DD20" t="s"/>
-      <c r="DE20" t="s"/>
-      <c r="DF20" t="s"/>
-      <c r="DG20" t="s"/>
-      <c r="DH20" t="s"/>
-      <c r="DI20" t="s"/>
-      <c r="DJ20" t="s"/>
-      <c r="DK20" t="s"/>
-      <c r="DL20" t="s"/>
-      <c r="DM20" t="s"/>
-      <c r="DN20" t="s"/>
-      <c r="DO20" t="s"/>
-      <c r="DP20" t="s"/>
-      <c r="DQ20" t="s"/>
-      <c r="DR20" t="s"/>
-      <c r="DS20" t="s"/>
-      <c r="DT20" t="s"/>
-      <c r="DU20" t="s"/>
-      <c r="DV20" t="s"/>
-      <c r="DW20" t="s"/>
-      <c r="DX20" t="s"/>
-      <c r="DY20" t="s"/>
-      <c r="DZ20" t="s"/>
-      <c r="EA20" t="s"/>
-      <c r="EB20" t="s"/>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr"/>
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
+      <c r="DE20" t="inlineStr"/>
+      <c r="DF20" t="inlineStr"/>
+      <c r="DG20" t="inlineStr"/>
+      <c r="DH20" t="inlineStr"/>
+      <c r="DI20" t="inlineStr"/>
+      <c r="DJ20" t="inlineStr"/>
+      <c r="DK20" t="inlineStr"/>
+      <c r="DL20" t="inlineStr"/>
+      <c r="DM20" t="inlineStr"/>
+      <c r="DN20" t="inlineStr"/>
+      <c r="DO20" t="inlineStr"/>
+      <c r="DP20" t="inlineStr"/>
+      <c r="DQ20" t="inlineStr"/>
+      <c r="DR20" t="inlineStr"/>
+      <c r="DS20" t="inlineStr"/>
+      <c r="DT20" t="inlineStr"/>
+      <c r="DU20" t="inlineStr"/>
+      <c r="DV20" t="inlineStr"/>
+      <c r="DW20" t="inlineStr"/>
+      <c r="DX20" t="inlineStr"/>
+      <c r="DY20" t="inlineStr"/>
+      <c r="DZ20" t="inlineStr"/>
+      <c r="EA20" t="inlineStr"/>
+      <c r="EB20" t="inlineStr"/>
+      <c r="EC20" t="inlineStr"/>
+      <c r="ED20" t="inlineStr"/>
+      <c r="EE20" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
